--- a/VHosting/Test.xlsx
+++ b/VHosting/Test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дима\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SanyaPy\Desktop\VHosting\VHosting\VHosting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EF31B9-6768-4AF7-90CA-F908880A6519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="13180"/>
   </bookViews>
   <sheets>
-    <sheet name="SmthNew_21" sheetId="1" r:id="rId1"/>
+    <sheet name="SmthNew_3004" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,21 +377,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -426,7 +425,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>3004</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
